--- a/epsilon_Q_3/pickles/final_scores.xlsx
+++ b/epsilon_Q_3/pickles/final_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>session 1</t>
   </si>
@@ -22,6 +22,9 @@
     <t>session 2</t>
   </si>
   <si>
+    <t>session 3</t>
+  </si>
+  <si>
     <t>epsilon=0.2, player 1</t>
   </si>
   <si>
@@ -41,6 +44,21 @@
   </si>
   <si>
     <t>higher than yours</t>
+  </si>
+  <si>
+    <t>epsilon=0.25, player 1</t>
+  </si>
+  <si>
+    <t>epsilon=0.25, player 2</t>
+  </si>
+  <si>
+    <t>epsilon=0.25, player 3</t>
+  </si>
+  <si>
+    <t>epsilon=0.25, player 4</t>
+  </si>
+  <si>
+    <t>epsilon=0.25, player 5</t>
   </si>
   <si>
     <t>epsilon=0.3, player 1</t>
@@ -443,243 +461,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.117</v>
+        <v>0.097</v>
       </c>
       <c r="C2">
-        <v>0.103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.063</v>
+      </c>
+      <c r="D2">
+        <v>0.076</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>0.12</v>
+        <v>0.051</v>
       </c>
       <c r="C3">
-        <v>0.119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0.039</v>
+      </c>
+      <c r="D3">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
+        <v>0.053</v>
+      </c>
+      <c r="C4">
+        <v>0.006</v>
+      </c>
+      <c r="D4">
         <v>0.048</v>
       </c>
-      <c r="C4">
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0.03</v>
+        <v>-0.002</v>
       </c>
       <c r="C5">
-        <v>-0.007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.038</v>
+      </c>
+      <c r="D5">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.131</v>
+        <v>0.157</v>
       </c>
       <c r="C6">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.149</v>
+      </c>
+      <c r="D6">
+        <v>0.078</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.131</v>
+        <v>0.157</v>
       </c>
       <c r="C7">
-        <v>0.119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.149</v>
+      </c>
+      <c r="D7">
+        <v>0.078</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0.152</v>
+      </c>
+      <c r="C9">
+        <v>0.119</v>
+      </c>
+      <c r="D9">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0.051</v>
+      </c>
+      <c r="C10">
+        <v>0.038</v>
+      </c>
+      <c r="D10">
+        <v>0.086</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>-0.014</v>
+      </c>
+      <c r="C11">
+        <v>0.103</v>
+      </c>
+      <c r="D11">
+        <v>0.063</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0.004</v>
+      </c>
+      <c r="C12">
+        <v>-0.024</v>
+      </c>
+      <c r="D12">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0.097</v>
+      </c>
+      <c r="C13">
+        <v>0.201</v>
+      </c>
+      <c r="D13">
+        <v>0.118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>0.152</v>
+      </c>
+      <c r="C14">
+        <v>0.201</v>
+      </c>
+      <c r="D14">
+        <v>0.118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B9">
-        <v>0.1</v>
-      </c>
-      <c r="C9">
-        <v>0.109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>0.063</v>
-      </c>
-      <c r="C10">
-        <v>0.156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>0.013</v>
-      </c>
-      <c r="C11">
-        <v>0.067</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>0.007</v>
-      </c>
-      <c r="C12">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>0.061</v>
-      </c>
-      <c r="C13">
-        <v>0.054</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>0.1</v>
-      </c>
-      <c r="C14">
-        <v>0.156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>0.123</v>
+        <v>0.07</v>
       </c>
       <c r="C16">
-        <v>0.146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.173</v>
+      </c>
+      <c r="D16">
+        <v>0.057</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>0.061</v>
+        <v>0.101</v>
       </c>
       <c r="C17">
-        <v>0.095</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0.046</v>
+      </c>
+      <c r="D17">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>0.036</v>
+        <v>0.048</v>
       </c>
       <c r="C18">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.022</v>
+      </c>
+      <c r="D18">
+        <v>0.083</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>0.005</v>
+        <v>0.022</v>
       </c>
       <c r="C19">
-        <v>-0.009</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>0.099</v>
+      </c>
+      <c r="D19">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>-0.006</v>
+        <v>0.052</v>
       </c>
       <c r="C20">
-        <v>0.095</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.13</v>
+      </c>
+      <c r="D20">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21">
-        <v>0.123</v>
+        <v>0.101</v>
       </c>
       <c r="C21">
-        <v>0.146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.173</v>
+      </c>
+      <c r="D21">
+        <v>0.083</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -687,82 +768,204 @@
       <c r="C22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23">
+        <v>0.072</v>
+      </c>
+      <c r="C23">
+        <v>0.121</v>
+      </c>
+      <c r="D23">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>0.027</v>
+      </c>
+      <c r="C24">
         <v>0.104</v>
       </c>
-      <c r="C23">
-        <v>0.129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24">
-        <v>0.093</v>
-      </c>
-      <c r="C24">
-        <v>0.131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25">
-        <v>0.038</v>
+        <v>0.061</v>
       </c>
       <c r="C25">
-        <v>0.053</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.139</v>
+      </c>
+      <c r="D25">
+        <v>0.196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26">
-        <v>0.073</v>
+        <v>0.027</v>
       </c>
       <c r="C26">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.015</v>
+      </c>
+      <c r="D26">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27">
-        <v>-0.031</v>
+        <v>0.24</v>
       </c>
       <c r="C27">
-        <v>-0.029</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>0.065</v>
+      </c>
+      <c r="D27">
+        <v>-1.26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28">
-        <v>0.104</v>
+        <v>0.24</v>
       </c>
       <c r="C28">
-        <v>0.131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.139</v>
+      </c>
+      <c r="D28">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <v>0.161</v>
+      </c>
+      <c r="C30">
+        <v>0.062</v>
+      </c>
+      <c r="D30">
+        <v>0.064</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>0.032</v>
+      </c>
+      <c r="C31">
+        <v>0.1</v>
+      </c>
+      <c r="D31">
+        <v>0.051</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32">
+        <v>0.04</v>
+      </c>
+      <c r="C32">
+        <v>0.022</v>
+      </c>
+      <c r="D32">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33">
+        <v>0.107</v>
+      </c>
+      <c r="C33">
+        <v>0.049</v>
+      </c>
+      <c r="D33">
+        <v>-0.002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34">
+        <v>0.071</v>
+      </c>
+      <c r="C34">
+        <v>0.064</v>
+      </c>
+      <c r="D34">
+        <v>0.163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>0.161</v>
+      </c>
+      <c r="C35">
+        <v>0.1</v>
+      </c>
+      <c r="D35">
+        <v>0.163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
